--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1826.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1826.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>2.086517753496758</v>
+        <v>0.7025729417800903</v>
       </c>
       <c r="B1">
-        <v>2.476793992108056</v>
+        <v>1.383336305618286</v>
       </c>
       <c r="C1">
-        <v>2.570568943903328</v>
+        <v>5.068563461303711</v>
       </c>
       <c r="D1">
-        <v>3.333843187093071</v>
+        <v>1.604281067848206</v>
       </c>
       <c r="E1">
-        <v>0.8672835975718564</v>
+        <v>0.9150964617729187</v>
       </c>
     </row>
   </sheetData>
